--- a/sict/day7/최종Test Folder/output/2023년5월24일 코로나 확진자 정리본_답.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월24일 코로나 확진자 정리본_답.xlsx
@@ -1,39 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-uipath\sict\day7\최종Test Folder\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3175903-6A4D-4B1C-9ED9-B319FB320D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="990" windowWidth="13395" windowHeight="10800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -45,9 +48,6 @@
       <t>1번째 달 평균 하루 확진자</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>27933</t>
   </si>
   <si>
     <r>
@@ -62,9 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>255609</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -75,9 +72,6 @@
       <t>3번째 달 최고 확진자 수(일별)</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>100191</t>
   </si>
   <si>
     <r>
@@ -92,9 +86,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>43100</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -107,9 +98,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>38179</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -120,9 +108,6 @@
       <t>(1년 기준)총 확진자 수</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>13935318</t>
   </si>
   <si>
     <r>
@@ -257,9 +242,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>0.012</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -271,19 +253,14 @@
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
-  <si>
-    <t>29</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -371,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,22 +376,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,25 +705,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:N17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="10" width="15.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="51.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14.69921875" style="5" customWidth="1"/>
+    <col min="5" max="10" width="15.69921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -760,7 +734,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2"/>
@@ -774,15 +748,13 @@
       <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="M2" s="6"/>
+      <c r="N2" s="12">
         <f>AVERAGE(B9:B39)</f>
         <v>27933.032258064515</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -793,17 +765,15 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="L3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="12">
         <f>SUM(B40:B69)</f>
         <v>255609</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -814,17 +784,15 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="L4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="12">
         <f>MAX(B70:B100)</f>
         <v>100191</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -835,17 +803,15 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="12">
         <f>MIN(B101:B131)</f>
         <v>43100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -856,17 +822,15 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="12">
         <f>AVERAGE(B9:B373)</f>
         <v>38178.953424657535</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -877,59 +841,55 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="L7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="12">
         <f>SUM(B9:B373)</f>
         <v>13935318</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="M8" s="8"/>
       <c r="N8" s="13">
-        <f>SUM(H9:H373) / N7</f>
+        <f>(SUM(H9:H373) / N7)</f>
         <v>1.2429425722470057E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44682</v>
       </c>
@@ -961,13 +921,15 @@
         <v>5501</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9">
+        <f>COUNTIF(G9:G373,"&lt;2000")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44683</v>
       </c>
@@ -999,7 +961,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44684</v>
       </c>
@@ -1031,7 +993,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44685</v>
       </c>
@@ -1063,7 +1025,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>44686</v>
       </c>
@@ -1095,7 +1057,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44687</v>
       </c>
@@ -1127,7 +1089,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44688</v>
       </c>
@@ -1159,7 +1121,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>44689</v>
       </c>
@@ -1191,7 +1153,7 @@
         <v>5828</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>44690</v>
       </c>
@@ -1223,7 +1185,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44691</v>
       </c>
@@ -1255,7 +1217,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>44692</v>
       </c>
@@ -1287,7 +1249,7 @@
         <v>6374</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44693</v>
       </c>
@@ -1319,7 +1281,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>44694</v>
       </c>
@@ -1351,7 +1313,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>44695</v>
       </c>
@@ -1383,7 +1345,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>44696</v>
       </c>
@@ -1415,7 +1377,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44697</v>
       </c>
@@ -1447,7 +1409,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>44698</v>
       </c>
@@ -1479,7 +1441,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>44699</v>
       </c>
@@ -1511,7 +1473,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44700</v>
       </c>
@@ -1543,7 +1505,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>44701</v>
       </c>
@@ -1575,7 +1537,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>44702</v>
       </c>
@@ -1607,7 +1569,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>44703</v>
       </c>
@@ -1639,7 +1601,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44704</v>
       </c>
@@ -1671,7 +1633,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44705</v>
       </c>
@@ -1703,7 +1665,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44706</v>
       </c>
@@ -1735,7 +1697,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>44707</v>
       </c>
@@ -1767,7 +1729,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>44708</v>
       </c>
@@ -1799,7 +1761,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>44709</v>
       </c>
@@ -1831,7 +1793,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44710</v>
       </c>
@@ -1863,7 +1825,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>44711</v>
       </c>
@@ -1895,7 +1857,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>44712</v>
       </c>
@@ -1927,7 +1889,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="11">
         <v>44713</v>
       </c>
@@ -1959,7 +1921,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="11">
         <v>44714</v>
       </c>
@@ -1991,7 +1953,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>44715</v>
       </c>
@@ -2023,7 +1985,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
         <v>44716</v>
       </c>
@@ -2055,7 +2017,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
         <v>44717</v>
       </c>
@@ -2087,7 +2049,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
         <v>44718</v>
       </c>
@@ -2119,7 +2081,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="11">
         <v>44719</v>
       </c>
@@ -2151,7 +2113,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="11">
         <v>44720</v>
       </c>
@@ -2183,7 +2145,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="11">
         <v>44721</v>
       </c>
@@ -2215,7 +2177,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
         <v>44722</v>
       </c>
@@ -2247,7 +2209,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="11">
         <v>44723</v>
       </c>
@@ -2279,7 +2241,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="11">
         <v>44724</v>
       </c>
@@ -2311,7 +2273,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="11">
         <v>44725</v>
       </c>
@@ -2343,7 +2305,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="11">
         <v>44726</v>
       </c>
@@ -2375,7 +2337,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="11">
         <v>44727</v>
       </c>
@@ -2407,7 +2369,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="11">
         <v>44728</v>
       </c>
@@ -2439,7 +2401,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="11">
         <v>44729</v>
       </c>
@@ -2471,7 +2433,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="11">
         <v>44730</v>
       </c>
@@ -2503,7 +2465,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="11">
         <v>44731</v>
       </c>
@@ -2535,7 +2497,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="11">
         <v>44732</v>
       </c>
@@ -2567,7 +2529,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="11">
         <v>44733</v>
       </c>
@@ -2599,7 +2561,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="11">
         <v>44734</v>
       </c>
@@ -2631,7 +2593,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="11">
         <v>44735</v>
       </c>
@@ -2663,7 +2625,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="11">
         <v>44736</v>
       </c>
@@ -2695,7 +2657,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="11">
         <v>44737</v>
       </c>
@@ -2727,7 +2689,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="11">
         <v>44738</v>
       </c>
@@ -2759,7 +2721,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="11">
         <v>44739</v>
       </c>
@@ -2791,7 +2753,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="11">
         <v>44740</v>
       </c>
@@ -2823,7 +2785,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="11">
         <v>44741</v>
       </c>
@@ -2855,7 +2817,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="11">
         <v>44742</v>
       </c>
@@ -2887,7 +2849,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="11">
         <v>44743</v>
       </c>
@@ -2919,7 +2881,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="11">
         <v>44744</v>
       </c>
@@ -2951,7 +2913,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="11">
         <v>44745</v>
       </c>
@@ -2983,7 +2945,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="11">
         <v>44746</v>
       </c>
@@ -3015,7 +2977,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="11">
         <v>44747</v>
       </c>
@@ -3047,7 +3009,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="11">
         <v>44748</v>
       </c>
@@ -3079,7 +3041,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="11">
         <v>44749</v>
       </c>
@@ -3111,7 +3073,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="11">
         <v>44750</v>
       </c>
@@ -3143,7 +3105,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="11">
         <v>44751</v>
       </c>
@@ -3175,7 +3137,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="11">
         <v>44752</v>
       </c>
@@ -3207,7 +3169,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="11">
         <v>44753</v>
       </c>
@@ -3239,7 +3201,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="11">
         <v>44754</v>
       </c>
@@ -3271,7 +3233,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="11">
         <v>44755</v>
       </c>
@@ -3303,7 +3265,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="11">
         <v>44756</v>
       </c>
@@ -3335,7 +3297,7 @@
         <v>5862</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="11">
         <v>44757</v>
       </c>
@@ -3367,7 +3329,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="11">
         <v>44758</v>
       </c>
@@ -3399,7 +3361,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="11">
         <v>44759</v>
       </c>
@@ -3431,7 +3393,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="11">
         <v>44760</v>
       </c>
@@ -3463,7 +3425,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="11">
         <v>44761</v>
       </c>
@@ -3495,7 +3457,7 @@
         <v>11397</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="11">
         <v>44762</v>
       </c>
@@ -3527,7 +3489,7 @@
         <v>11427</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="11">
         <v>44763</v>
       </c>
@@ -3559,7 +3521,7 @@
         <v>10704</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="11">
         <v>44764</v>
       </c>
@@ -3591,7 +3553,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="11">
         <v>44765</v>
       </c>
@@ -3623,7 +3585,7 @@
         <v>9836</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="11">
         <v>44766</v>
       </c>
@@ -3655,7 +3617,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="11">
         <v>44767</v>
       </c>
@@ -3687,7 +3649,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="11">
         <v>44768</v>
       </c>
@@ -3719,7 +3681,7 @@
         <v>16313</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="11">
         <v>44769</v>
       </c>
@@ -3751,7 +3713,7 @@
         <v>15421</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="11">
         <v>44770</v>
       </c>
@@ -3783,7 +3745,7 @@
         <v>13630</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="11">
         <v>44771</v>
       </c>
@@ -3815,7 +3777,7 @@
         <v>12813</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="11">
         <v>44772</v>
       </c>
@@ -3847,7 +3809,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="11">
         <v>44773</v>
       </c>
@@ -3879,7 +3841,7 @@
         <v>11602</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="11">
         <v>44774</v>
       </c>
@@ -3911,7 +3873,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="11">
         <v>44775</v>
       </c>
@@ -3943,7 +3905,7 @@
         <v>18220</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="11">
         <v>44776</v>
       </c>
@@ -3975,7 +3937,7 @@
         <v>18205</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="11">
         <v>44777</v>
       </c>
@@ -4007,7 +3969,7 @@
         <v>16348</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="11">
         <v>44778</v>
       </c>
@@ -4039,7 +4001,7 @@
         <v>16640</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="11">
         <v>44779</v>
       </c>
@@ -4071,7 +4033,7 @@
         <v>16511</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="11">
         <v>44780</v>
       </c>
@@ -4103,7 +4065,7 @@
         <v>15714</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="11">
         <v>44781</v>
       </c>
@@ -4135,7 +4097,7 @@
         <v>8728</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="11">
         <v>44782</v>
       </c>
@@ -4167,7 +4129,7 @@
         <v>23885</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="11">
         <v>44783</v>
       </c>
@@ -4199,7 +4161,7 @@
         <v>22260</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="11">
         <v>44784</v>
       </c>
@@ -4231,7 +4193,7 @@
         <v>19602</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="11">
         <v>44785</v>
       </c>
@@ -4263,7 +4225,7 @@
         <v>18459</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="11">
         <v>44786</v>
       </c>
@@ -4295,7 +4257,7 @@
         <v>17902</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="11">
         <v>44787</v>
       </c>
@@ -4327,7 +4289,7 @@
         <v>17334</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="11">
         <v>44788</v>
       </c>
@@ -4359,7 +4321,7 @@
         <v>9423</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="11">
         <v>44789</v>
       </c>
@@ -4391,7 +4353,7 @@
         <v>13608</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="11">
         <v>44790</v>
       </c>
@@ -4423,7 +4385,7 @@
         <v>28027</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="11">
         <v>44791</v>
       </c>
@@ -4455,7 +4417,7 @@
         <v>25068</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="11">
         <v>44792</v>
       </c>
@@ -4487,7 +4449,7 @@
         <v>19497</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="11">
         <v>44793</v>
       </c>
@@ -4519,7 +4481,7 @@
         <v>17713</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="11">
         <v>44794</v>
       </c>
@@ -4551,7 +4513,7 @@
         <v>15622</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="11">
         <v>44795</v>
       </c>
@@ -4583,7 +4545,7 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="11">
         <v>44796</v>
       </c>
@@ -4615,7 +4577,7 @@
         <v>22536</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="11">
         <v>44797</v>
       </c>
@@ -4647,7 +4609,7 @@
         <v>19610</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="11">
         <v>44798</v>
       </c>
@@ -4679,7 +4641,7 @@
         <v>16383</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="11">
         <v>44799</v>
       </c>
@@ -4711,7 +4673,7 @@
         <v>13904</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="11">
         <v>44800</v>
       </c>
@@ -4743,7 +4705,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="11">
         <v>44801</v>
       </c>
@@ -4775,7 +4737,7 @@
         <v>11994</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="11">
         <v>44802</v>
       </c>
@@ -4807,7 +4769,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="11">
         <v>44803</v>
       </c>
@@ -4839,7 +4801,7 @@
         <v>17263</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="11">
         <v>44804</v>
       </c>
@@ -4871,7 +4833,7 @@
         <v>15087</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="11">
         <v>44805</v>
       </c>
@@ -4903,7 +4865,7 @@
         <v>12422</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="11">
         <v>44806</v>
       </c>
@@ -4935,7 +4897,7 @@
         <v>12535</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="11">
         <v>44807</v>
       </c>
@@ -4967,7 +4929,7 @@
         <v>11092</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="11">
         <v>44808</v>
       </c>
@@ -4999,7 +4961,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="11">
         <v>44809</v>
       </c>
@@ -5031,7 +4993,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="11">
         <v>44810</v>
       </c>
@@ -5063,7 +5025,7 @@
         <v>15266</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="11">
         <v>44811</v>
       </c>
@@ -5095,7 +5057,7 @@
         <v>12540</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="11">
         <v>44812</v>
       </c>
@@ -5127,7 +5089,7 @@
         <v>10859</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="11">
         <v>44813</v>
       </c>
@@ -5159,7 +5121,7 @@
         <v>9652</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="11">
         <v>44814</v>
       </c>
@@ -5191,7 +5153,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="11">
         <v>44815</v>
       </c>
@@ -5223,7 +5185,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="11">
         <v>44816</v>
       </c>
@@ -5255,7 +5217,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="11">
         <v>44817</v>
       </c>
@@ -5287,7 +5249,7 @@
         <v>9418</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="11">
         <v>44818</v>
       </c>
@@ -5319,7 +5281,7 @@
         <v>14821</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="11">
         <v>44819</v>
       </c>
@@ -5351,7 +5313,7 @@
         <v>10707</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="11">
         <v>44820</v>
       </c>
@@ -5383,7 +5345,7 @@
         <v>7613</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="11">
         <v>44821</v>
       </c>
@@ -5415,7 +5377,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="11">
         <v>44822</v>
       </c>
@@ -5447,7 +5409,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="11">
         <v>44823</v>
       </c>
@@ -5479,7 +5441,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="11">
         <v>44824</v>
       </c>
@@ -5511,7 +5473,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="11">
         <v>44825</v>
       </c>
@@ -5543,7 +5505,7 @@
         <v>5816</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="11">
         <v>44826</v>
       </c>
@@ -5575,7 +5537,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="11">
         <v>44827</v>
       </c>
@@ -5607,7 +5569,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="11">
         <v>44828</v>
       </c>
@@ -5639,7 +5601,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="11">
         <v>44829</v>
       </c>
@@ -5671,7 +5633,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="11">
         <v>44830</v>
       </c>
@@ -5703,7 +5665,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="11">
         <v>44831</v>
       </c>
@@ -5735,7 +5697,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="11">
         <v>44832</v>
       </c>
@@ -5767,7 +5729,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="11">
         <v>44833</v>
       </c>
@@ -5799,7 +5761,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="11">
         <v>44834</v>
       </c>
@@ -5831,7 +5793,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="11">
         <v>44835</v>
       </c>
@@ -5863,7 +5825,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="11">
         <v>44836</v>
       </c>
@@ -5895,7 +5857,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
         <v>44837</v>
       </c>
@@ -5927,7 +5889,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
         <v>44838</v>
       </c>
@@ -5959,7 +5921,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
         <v>44839</v>
       </c>
@@ -5991,7 +5953,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
         <v>44840</v>
       </c>
@@ -6023,7 +5985,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
         <v>44841</v>
       </c>
@@ -6055,7 +6017,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
         <v>44842</v>
       </c>
@@ -6087,7 +6049,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
         <v>44843</v>
       </c>
@@ -6119,7 +6081,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
         <v>44844</v>
       </c>
@@ -6151,7 +6113,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
         <v>44845</v>
       </c>
@@ -6183,7 +6145,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
         <v>44846</v>
       </c>
@@ -6215,7 +6177,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
         <v>44847</v>
       </c>
@@ -6247,7 +6209,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="11">
         <v>44848</v>
       </c>
@@ -6279,7 +6241,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="11">
         <v>44849</v>
       </c>
@@ -6311,7 +6273,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="11">
         <v>44850</v>
       </c>
@@ -6343,7 +6305,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="11">
         <v>44851</v>
       </c>
@@ -6375,7 +6337,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="11">
         <v>44852</v>
       </c>
@@ -6407,7 +6369,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="11">
         <v>44853</v>
       </c>
@@ -6439,7 +6401,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="11">
         <v>44854</v>
       </c>
@@ -6471,7 +6433,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="11">
         <v>44855</v>
       </c>
@@ -6503,7 +6465,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="11">
         <v>44856</v>
       </c>
@@ -6535,7 +6497,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="11">
         <v>44857</v>
       </c>
@@ -6567,7 +6529,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="11">
         <v>44858</v>
       </c>
@@ -6599,7 +6561,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="11">
         <v>44859</v>
       </c>
@@ -6631,7 +6593,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="11">
         <v>44860</v>
       </c>
@@ -6663,7 +6625,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="11">
         <v>44861</v>
       </c>
@@ -6695,7 +6657,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="11">
         <v>44862</v>
       </c>
@@ -6727,7 +6689,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="11">
         <v>44863</v>
       </c>
@@ -6759,7 +6721,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="11">
         <v>44864</v>
       </c>
@@ -6791,7 +6753,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="11">
         <v>44865</v>
       </c>
@@ -6823,7 +6785,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="11">
         <v>44866</v>
       </c>
@@ -6855,7 +6817,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="11">
         <v>44867</v>
       </c>
@@ -6887,7 +6849,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="11">
         <v>44868</v>
       </c>
@@ -6919,7 +6881,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="11">
         <v>44869</v>
       </c>
@@ -6951,7 +6913,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="11">
         <v>44870</v>
       </c>
@@ -6983,7 +6945,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="11">
         <v>44871</v>
       </c>
@@ -7015,7 +6977,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="11">
         <v>44872</v>
       </c>
@@ -7047,7 +7009,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="11">
         <v>44873</v>
       </c>
@@ -7079,7 +7041,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="11">
         <v>44874</v>
       </c>
@@ -7111,7 +7073,7 @@
         <v>9167</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="11">
         <v>44875</v>
       </c>
@@ -7143,7 +7105,7 @@
         <v>8374</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="11">
         <v>44876</v>
       </c>
@@ -7175,7 +7137,7 @@
         <v>7887</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="11">
         <v>44877</v>
       </c>
@@ -7207,7 +7169,7 @@
         <v>7735</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="11">
         <v>44878</v>
       </c>
@@ -7239,7 +7201,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="11">
         <v>44879</v>
       </c>
@@ -7271,7 +7233,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="11">
         <v>44880</v>
       </c>
@@ -7303,7 +7265,7 @@
         <v>11537</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="11">
         <v>44881</v>
       </c>
@@ -7335,7 +7297,7 @@
         <v>9818</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="11">
         <v>44882</v>
       </c>
@@ -7367,7 +7329,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="11">
         <v>44883</v>
       </c>
@@ -7399,7 +7361,7 @@
         <v>7293</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="11">
         <v>44884</v>
       </c>
@@ -7431,7 +7393,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="11">
         <v>44885</v>
       </c>
@@ -7463,7 +7425,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="11">
         <v>44886</v>
       </c>
@@ -7495,7 +7457,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="11">
         <v>44887</v>
       </c>
@@ -7527,7 +7489,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="11">
         <v>44888</v>
       </c>
@@ -7559,7 +7521,7 @@
         <v>10479</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="11">
         <v>44889</v>
       </c>
@@ -7591,7 +7553,7 @@
         <v>8703</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="11">
         <v>44890</v>
       </c>
@@ -7623,7 +7585,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="11">
         <v>44891</v>
       </c>
@@ -7655,7 +7617,7 @@
         <v>7416</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="11">
         <v>44892</v>
       </c>
@@ -7687,7 +7649,7 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="11">
         <v>44893</v>
       </c>
@@ -7719,7 +7681,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="11">
         <v>44894</v>
       </c>
@@ -7751,7 +7713,7 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="11">
         <v>44895</v>
       </c>
@@ -7783,7 +7745,7 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="11">
         <v>44896</v>
       </c>
@@ -7815,7 +7777,7 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="11">
         <v>44897</v>
       </c>
@@ -7847,7 +7809,7 @@
         <v>7858</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="11">
         <v>44898</v>
       </c>
@@ -7879,7 +7841,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="11">
         <v>44899</v>
       </c>
@@ -7911,7 +7873,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="11">
         <v>44900</v>
       </c>
@@ -7943,7 +7905,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="11">
         <v>44901</v>
       </c>
@@ -7975,7 +7937,7 @@
         <v>12442</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="11">
         <v>44902</v>
       </c>
@@ -8007,7 +7969,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="11">
         <v>44903</v>
       </c>
@@ -8039,7 +8001,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="11">
         <v>44904</v>
       </c>
@@ -8071,7 +8033,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="11">
         <v>44905</v>
       </c>
@@ -8103,7 +8065,7 @@
         <v>8932</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="11">
         <v>44906</v>
       </c>
@@ -8135,7 +8097,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="11">
         <v>44907</v>
       </c>
@@ -8167,7 +8129,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="11">
         <v>44908</v>
       </c>
@@ -8199,7 +8161,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="11">
         <v>44909</v>
       </c>
@@ -8231,7 +8193,7 @@
         <v>12919</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="11">
         <v>44910</v>
       </c>
@@ -8263,7 +8225,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="11">
         <v>44911</v>
       </c>
@@ -8295,7 +8257,7 @@
         <v>10266</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="11">
         <v>44912</v>
       </c>
@@ -8327,7 +8289,7 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="11">
         <v>44913</v>
       </c>
@@ -8359,7 +8321,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241" s="11">
         <v>44914</v>
       </c>
@@ -8391,7 +8353,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242" s="11">
         <v>44915</v>
       </c>
@@ -8423,7 +8385,7 @@
         <v>14502</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243" s="11">
         <v>44916</v>
       </c>
@@ -8455,7 +8417,7 @@
         <v>13790</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244" s="11">
         <v>44917</v>
       </c>
@@ -8487,7 +8449,7 @@
         <v>11829</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245" s="11">
         <v>44918</v>
       </c>
@@ -8519,7 +8481,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246" s="11">
         <v>44919</v>
       </c>
@@ -8551,7 +8513,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247" s="11">
         <v>44920</v>
       </c>
@@ -8583,7 +8545,7 @@
         <v>9239</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248" s="11">
         <v>44921</v>
       </c>
@@ -8615,7 +8577,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249" s="11">
         <v>44922</v>
       </c>
@@ -8647,7 +8609,7 @@
         <v>14235</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250" s="11">
         <v>44923</v>
       </c>
@@ -8679,7 +8641,7 @@
         <v>13150</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251" s="11">
         <v>44924</v>
       </c>
@@ -8711,7 +8673,7 @@
         <v>10984</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A252" s="11">
         <v>44925</v>
       </c>
@@ -8743,7 +8705,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253" s="11">
         <v>44926</v>
       </c>
@@ -8775,7 +8737,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254" s="11">
         <v>44927</v>
       </c>
@@ -8807,7 +8769,7 @@
         <v>8759</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255" s="11">
         <v>44928</v>
       </c>
@@ -8839,7 +8801,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256" s="11">
         <v>44929</v>
       </c>
@@ -8871,7 +8833,7 @@
         <v>13388</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="11">
         <v>44930</v>
       </c>
@@ -8903,7 +8865,7 @@
         <v>11838</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="11">
         <v>44931</v>
       </c>
@@ -8935,7 +8897,7 @@
         <v>9764</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="11">
         <v>44932</v>
       </c>
@@ -8967,7 +8929,7 @@
         <v>8520</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="11">
         <v>44933</v>
       </c>
@@ -8999,7 +8961,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="11">
         <v>44934</v>
       </c>
@@ -9031,7 +8993,7 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="11">
         <v>44935</v>
       </c>
@@ -9063,7 +9025,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="11">
         <v>44936</v>
       </c>
@@ -9095,7 +9057,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="11">
         <v>44937</v>
       </c>
@@ -9127,7 +9089,7 @@
         <v>8058</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="11">
         <v>44938</v>
       </c>
@@ -9159,7 +9121,7 @@
         <v>6617</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="11">
         <v>44939</v>
       </c>
@@ -9191,7 +9153,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="11">
         <v>44940</v>
       </c>
@@ -9223,7 +9185,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="11">
         <v>44941</v>
       </c>
@@ -9255,7 +9217,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="11">
         <v>44942</v>
       </c>
@@ -9287,7 +9249,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="11">
         <v>44943</v>
       </c>
@@ -9319,7 +9281,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="11">
         <v>44944</v>
       </c>
@@ -9351,7 +9313,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="11">
         <v>44945</v>
       </c>
@@ -9383,7 +9345,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" s="11">
         <v>44946</v>
       </c>
@@ -9415,7 +9377,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274" s="11">
         <v>44947</v>
       </c>
@@ -9447,7 +9409,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" s="11">
         <v>44948</v>
       </c>
@@ -9479,7 +9441,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276" s="11">
         <v>44949</v>
       </c>
@@ -9511,7 +9473,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A277" s="11">
         <v>44950</v>
       </c>
@@ -9543,7 +9505,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278" s="11">
         <v>44951</v>
       </c>
@@ -9575,7 +9537,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" s="11">
         <v>44952</v>
       </c>
@@ -9607,7 +9569,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280" s="11">
         <v>44953</v>
       </c>
@@ -9639,7 +9601,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281" s="11">
         <v>44954</v>
       </c>
@@ -9671,7 +9633,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282" s="11">
         <v>44955</v>
       </c>
@@ -9703,7 +9665,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283" s="11">
         <v>44956</v>
       </c>
@@ -9735,7 +9697,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284" s="11">
         <v>44957</v>
       </c>
@@ -9767,7 +9729,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285" s="11">
         <v>44958</v>
       </c>
@@ -9799,7 +9761,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286" s="11">
         <v>44959</v>
       </c>
@@ -9831,7 +9793,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287" s="11">
         <v>44960</v>
       </c>
@@ -9863,7 +9825,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288" s="11">
         <v>44961</v>
       </c>
@@ -9895,7 +9857,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A289" s="11">
         <v>44962</v>
       </c>
@@ -9927,7 +9889,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" s="11">
         <v>44963</v>
       </c>
@@ -9959,7 +9921,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291" s="11">
         <v>44964</v>
       </c>
@@ -9991,7 +9953,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292" s="11">
         <v>44965</v>
       </c>
@@ -10023,7 +9985,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A293" s="11">
         <v>44966</v>
       </c>
@@ -10055,7 +10017,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294" s="11">
         <v>44967</v>
       </c>
@@ -10087,7 +10049,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295" s="11">
         <v>44968</v>
       </c>
@@ -10119,7 +10081,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A296" s="11">
         <v>44969</v>
       </c>
@@ -10151,7 +10113,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A297" s="11">
         <v>44970</v>
       </c>
@@ -10183,7 +10145,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298" s="11">
         <v>44971</v>
       </c>
@@ -10215,7 +10177,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299" s="11">
         <v>44972</v>
       </c>
@@ -10247,7 +10209,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300" s="11">
         <v>44973</v>
       </c>
@@ -10279,7 +10241,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301" s="11">
         <v>44974</v>
       </c>
@@ -10311,7 +10273,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302" s="11">
         <v>44975</v>
       </c>
@@ -10343,7 +10305,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A303" s="11">
         <v>44976</v>
       </c>
@@ -10375,7 +10337,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304" s="11">
         <v>44977</v>
       </c>
@@ -10407,7 +10369,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A305" s="11">
         <v>44978</v>
       </c>
@@ -10439,7 +10401,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A306" s="11">
         <v>44979</v>
       </c>
@@ -10471,7 +10433,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307" s="11">
         <v>44980</v>
       </c>
@@ -10503,7 +10465,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308" s="11">
         <v>44981</v>
       </c>
@@ -10535,7 +10497,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A309" s="11">
         <v>44982</v>
       </c>
@@ -10567,7 +10529,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A310" s="11">
         <v>44983</v>
       </c>
@@ -10599,7 +10561,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311" s="11">
         <v>44984</v>
       </c>
@@ -10631,7 +10593,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312" s="11">
         <v>44985</v>
       </c>
@@ -10663,7 +10625,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313" s="11">
         <v>44986</v>
       </c>
@@ -10695,7 +10657,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" s="11">
         <v>44987</v>
       </c>
@@ -10727,7 +10689,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" s="11">
         <v>44988</v>
       </c>
@@ -10759,7 +10721,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" s="11">
         <v>44989</v>
       </c>
@@ -10791,7 +10753,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" s="11">
         <v>44990</v>
       </c>
@@ -10823,7 +10785,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" s="11">
         <v>44991</v>
       </c>
@@ -10855,7 +10817,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" s="11">
         <v>44992</v>
       </c>
@@ -10887,7 +10849,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" s="11">
         <v>44993</v>
       </c>
@@ -10919,7 +10881,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" s="11">
         <v>44994</v>
       </c>
@@ -10951,7 +10913,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" s="11">
         <v>44995</v>
       </c>
@@ -10983,7 +10945,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" s="11">
         <v>44996</v>
       </c>
@@ -11015,7 +10977,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" s="11">
         <v>44997</v>
       </c>
@@ -11047,7 +11009,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" s="11">
         <v>44998</v>
       </c>
@@ -11079,7 +11041,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" s="11">
         <v>44999</v>
       </c>
@@ -11111,7 +11073,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" s="11">
         <v>45000</v>
       </c>
@@ -11143,7 +11105,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" s="11">
         <v>45001</v>
       </c>
@@ -11175,7 +11137,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" s="11">
         <v>45002</v>
       </c>
@@ -11207,7 +11169,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" s="11">
         <v>45003</v>
       </c>
@@ -11239,7 +11201,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" s="11">
         <v>45004</v>
       </c>
@@ -11271,7 +11233,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" s="11">
         <v>45005</v>
       </c>
@@ -11303,7 +11265,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" s="11">
         <v>45006</v>
       </c>
@@ -11335,7 +11297,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" s="11">
         <v>45007</v>
       </c>
@@ -11367,7 +11329,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" s="11">
         <v>45008</v>
       </c>
@@ -11399,7 +11361,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" s="11">
         <v>45009</v>
       </c>
@@ -11431,7 +11393,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337" s="11">
         <v>45010</v>
       </c>
@@ -11463,7 +11425,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" s="11">
         <v>45011</v>
       </c>
@@ -11495,7 +11457,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" s="11">
         <v>45012</v>
       </c>
@@ -11527,7 +11489,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" s="11">
         <v>45013</v>
       </c>
@@ -11559,7 +11521,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" s="11">
         <v>45014</v>
       </c>
@@ -11591,7 +11553,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" s="11">
         <v>45015</v>
       </c>
@@ -11623,7 +11585,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" s="11">
         <v>45016</v>
       </c>
@@ -11655,7 +11617,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" s="11">
         <v>45017</v>
       </c>
@@ -11687,7 +11649,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" s="11">
         <v>45018</v>
       </c>
@@ -11719,7 +11681,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" s="11">
         <v>45019</v>
       </c>
@@ -11751,7 +11713,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347" s="11">
         <v>45020</v>
       </c>
@@ -11783,7 +11745,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" s="11">
         <v>45021</v>
       </c>
@@ -11815,7 +11777,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" s="11">
         <v>45022</v>
       </c>
@@ -11847,7 +11809,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" s="11">
         <v>45023</v>
       </c>
@@ -11879,7 +11841,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" s="11">
         <v>45024</v>
       </c>
@@ -11911,7 +11873,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" s="11">
         <v>45025</v>
       </c>
@@ -11943,7 +11905,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A353" s="11">
         <v>45026</v>
       </c>
@@ -11975,7 +11937,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354" s="11">
         <v>45027</v>
       </c>
@@ -12007,7 +11969,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="11">
         <v>45028</v>
       </c>
@@ -12039,7 +12001,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A356" s="11">
         <v>45029</v>
       </c>
@@ -12071,7 +12033,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357" s="11">
         <v>45030</v>
       </c>
@@ -12103,7 +12065,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="11">
         <v>45031</v>
       </c>
@@ -12135,7 +12097,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="11">
         <v>45032</v>
       </c>
@@ -12167,7 +12129,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360" s="11">
         <v>45033</v>
       </c>
@@ -12199,7 +12161,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A361" s="11">
         <v>45034</v>
       </c>
@@ -12231,7 +12193,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362" s="11">
         <v>45035</v>
       </c>
@@ -12263,7 +12225,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A363" s="11">
         <v>45036</v>
       </c>
@@ -12295,7 +12257,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="11">
         <v>45037</v>
       </c>
@@ -12327,7 +12289,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="11">
         <v>45038</v>
       </c>
@@ -12359,7 +12321,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366" s="11">
         <v>45039</v>
       </c>
@@ -12391,7 +12353,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="11">
         <v>45040</v>
       </c>
@@ -12423,7 +12385,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="11">
         <v>45041</v>
       </c>
@@ -12455,7 +12417,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="11">
         <v>45042</v>
       </c>
@@ -12487,7 +12449,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="11">
         <v>45043</v>
       </c>
@@ -12519,7 +12481,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A371" s="11">
         <v>45044</v>
       </c>
@@ -12551,7 +12513,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A372" s="11">
         <v>45045</v>
       </c>
@@ -12583,7 +12545,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="11">
         <v>45046</v>
       </c>
